--- a/Ngapuhi_13_eng.xlsx
+++ b/Ngapuhi_13_eng.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26709"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\egilkiso\AppData\Local\Lotus\Notes\Data\RSL_DocOne.wrk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peterjkeegan/ghweb/MaoriStats01/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11760"/>
+    <workbookView xWindow="19860" yWindow="3060" windowWidth="28780" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="5" r:id="rId1"/>
@@ -27,7 +27,12 @@
     <definedName name="TeReo">#REF!</definedName>
     <definedName name="Whanau">'Table 3'!$B$12:$H$77</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -179,9 +184,6 @@
   </si>
   <si>
     <t>Source: Statistics New Zealand</t>
-  </si>
-  <si>
-    <t>Table 2</t>
   </si>
   <si>
     <t>Te reo Māori proficiency (self-rated)</t>
@@ -807,6 +809,9 @@
   <si>
     <t>Ease of getting whānau support</t>
   </si>
+  <si>
+    <t>fairl</t>
+  </si>
 </sst>
 </file>
 
@@ -818,7 +823,7 @@
     <numFmt numFmtId="166" formatCode="#,##0.0"/>
     <numFmt numFmtId="167" formatCode="?,??0.0;\-?,??0.0"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1002,7 +1007,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1010,55 +1015,55 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1066,18 +1071,18 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -1085,36 +1090,36 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -1122,20 +1127,20 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -1714,9 +1719,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1749,9 +1754,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1933,24 +1938,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="36" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="36" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" style="36" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="36" customWidth="1"/>
     <col min="3" max="3" width="2" style="36" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="36" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="36" customWidth="1"/>
     <col min="5" max="5" width="7" style="36" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="36"/>
-    <col min="8" max="8" width="10.140625" style="36" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="36" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="36"/>
+    <col min="6" max="7" width="9.1640625" style="36"/>
+    <col min="8" max="8" width="10.1640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" style="36" customWidth="1"/>
+    <col min="10" max="16384" width="9.1640625" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" customHeight="1">
+    <row r="1" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="155" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
@@ -1959,7 +1964,7 @@
       <c r="G1" s="37"/>
       <c r="H1" s="37"/>
     </row>
-    <row r="2" spans="1:10" ht="13.5" customHeight="1">
+    <row r="2" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2"/>
       <c r="B2"/>
       <c r="C2"/>
@@ -1968,9 +1973,9 @@
       <c r="G2" s="37"/>
       <c r="H2" s="37"/>
     </row>
-    <row r="3" spans="1:10" ht="17.25" customHeight="1">
+    <row r="3" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="156" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
@@ -1980,39 +1985,39 @@
       <c r="G3" s="37"/>
       <c r="H3" s="37"/>
     </row>
-    <row r="4" spans="1:10" s="42" customFormat="1" ht="12.75" customHeight="1">
+    <row r="4" spans="1:10" s="42" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="43">
         <v>1</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F4" s="44"/>
     </row>
-    <row r="5" spans="1:10" s="42" customFormat="1" ht="12.75" customHeight="1">
+    <row r="5" spans="1:10" s="42" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="43">
         <v>2</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E5" s="45"/>
       <c r="F5" s="46"/>
       <c r="G5" s="47"/>
       <c r="H5" s="48"/>
     </row>
-    <row r="6" spans="1:10" s="42" customFormat="1" ht="12.75" customHeight="1">
+    <row r="6" spans="1:10" s="42" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="42">
         <v>3</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E6" s="45"/>
       <c r="F6" s="46"/>
       <c r="G6" s="49"/>
     </row>
-    <row r="7" spans="1:10" ht="12.75" customHeight="1">
+    <row r="7" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="50"/>
       <c r="B7" s="50"/>
       <c r="C7" s="50"/>
@@ -2026,9 +2031,9 @@
       <c r="I7" s="50"/>
       <c r="J7" s="50"/>
     </row>
-    <row r="8" spans="1:10" ht="12.75" customHeight="1">
+    <row r="8" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="140" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B8" s="141"/>
       <c r="C8" s="142"/>
@@ -2040,9 +2045,9 @@
       <c r="I8" s="142"/>
       <c r="J8" s="50"/>
     </row>
-    <row r="9" spans="1:10" ht="12.75" customHeight="1">
+    <row r="9" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="160" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B9" s="160"/>
       <c r="C9" s="160"/>
@@ -2054,7 +2059,7 @@
       <c r="I9" s="160"/>
       <c r="J9" s="50"/>
     </row>
-    <row r="10" spans="1:10" ht="12.75" customHeight="1">
+    <row r="10" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="160"/>
       <c r="B10" s="160"/>
       <c r="C10" s="160"/>
@@ -2066,7 +2071,7 @@
       <c r="I10" s="160"/>
       <c r="J10" s="50"/>
     </row>
-    <row r="11" spans="1:10" ht="12.75" customHeight="1">
+    <row r="11" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="160"/>
       <c r="B11" s="160"/>
       <c r="C11" s="160"/>
@@ -2078,7 +2083,7 @@
       <c r="I11" s="160"/>
       <c r="J11" s="50"/>
     </row>
-    <row r="12" spans="1:10" ht="12.75" customHeight="1">
+    <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="143"/>
       <c r="B12" s="143"/>
       <c r="C12" s="143"/>
@@ -2090,9 +2095,9 @@
       <c r="I12" s="143"/>
       <c r="J12" s="50"/>
     </row>
-    <row r="13" spans="1:10" ht="12.75" customHeight="1">
+    <row r="13" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="144" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B13" s="141"/>
       <c r="C13" s="142"/>
@@ -2104,9 +2109,9 @@
       <c r="I13" s="142"/>
       <c r="J13" s="50"/>
     </row>
-    <row r="14" spans="1:10" ht="12.75" customHeight="1">
+    <row r="14" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="161" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B14" s="161"/>
       <c r="C14" s="161"/>
@@ -2118,7 +2123,7 @@
       <c r="I14" s="161"/>
       <c r="J14" s="50"/>
     </row>
-    <row r="15" spans="1:10" ht="12.75" customHeight="1">
+    <row r="15" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="161"/>
       <c r="B15" s="161"/>
       <c r="C15" s="161"/>
@@ -2130,7 +2135,7 @@
       <c r="I15" s="161"/>
       <c r="J15" s="50"/>
     </row>
-    <row r="16" spans="1:10" ht="12.75" customHeight="1">
+    <row r="16" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="161"/>
       <c r="B16" s="161"/>
       <c r="C16" s="161"/>
@@ -2142,7 +2147,7 @@
       <c r="I16" s="161"/>
       <c r="J16" s="50"/>
     </row>
-    <row r="17" spans="1:10" ht="12.75" customHeight="1">
+    <row r="17" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="161"/>
       <c r="B17" s="161"/>
       <c r="C17" s="161"/>
@@ -2154,7 +2159,7 @@
       <c r="I17" s="161"/>
       <c r="J17" s="50"/>
     </row>
-    <row r="18" spans="1:10" ht="12.75" customHeight="1">
+    <row r="18" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="161"/>
       <c r="B18" s="161"/>
       <c r="C18" s="161"/>
@@ -2166,9 +2171,9 @@
       <c r="I18" s="161"/>
       <c r="J18" s="50"/>
     </row>
-    <row r="19" spans="1:10" ht="12.75" customHeight="1">
+    <row r="19" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="164" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B19" s="164"/>
       <c r="C19" s="164"/>
@@ -2180,7 +2185,7 @@
       <c r="I19" s="145"/>
       <c r="J19" s="50"/>
     </row>
-    <row r="20" spans="1:10" ht="12.75" customHeight="1">
+    <row r="20" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="146"/>
       <c r="B20" s="146"/>
       <c r="C20" s="146"/>
@@ -2192,9 +2197,9 @@
       <c r="I20" s="146"/>
       <c r="J20" s="50"/>
     </row>
-    <row r="21" spans="1:10" ht="12.75" customHeight="1">
+    <row r="21" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="147" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B21" s="148"/>
       <c r="C21" s="148"/>
@@ -2206,9 +2211,9 @@
       <c r="I21" s="148"/>
       <c r="J21" s="50"/>
     </row>
-    <row r="22" spans="1:10" ht="12.75" customHeight="1">
+    <row r="22" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="150" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B22" s="149"/>
       <c r="C22" s="149"/>
@@ -2220,7 +2225,7 @@
       <c r="I22" s="149"/>
       <c r="J22" s="50"/>
     </row>
-    <row r="23" spans="1:10" ht="12.75" customHeight="1">
+    <row r="23" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="151"/>
       <c r="B23" s="151"/>
       <c r="C23" s="151"/>
@@ -2232,9 +2237,9 @@
       <c r="I23" s="151"/>
       <c r="J23" s="50"/>
     </row>
-    <row r="24" spans="1:10" ht="12.75" customHeight="1">
+    <row r="24" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="144" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B24" s="141"/>
       <c r="C24" s="142"/>
@@ -2246,9 +2251,9 @@
       <c r="I24" s="142"/>
       <c r="J24" s="50"/>
     </row>
-    <row r="25" spans="1:10" ht="12.75" customHeight="1">
+    <row r="25" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="162" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B25" s="163"/>
       <c r="C25" s="163"/>
@@ -2260,7 +2265,7 @@
       <c r="I25" s="163"/>
       <c r="J25" s="50"/>
     </row>
-    <row r="26" spans="1:10" ht="12.75" customHeight="1">
+    <row r="26" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="163"/>
       <c r="B26" s="163"/>
       <c r="C26" s="163"/>
@@ -2272,7 +2277,7 @@
       <c r="I26" s="163"/>
       <c r="J26" s="50"/>
     </row>
-    <row r="27" spans="1:10" ht="12.75" customHeight="1">
+    <row r="27" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="163"/>
       <c r="B27" s="163"/>
       <c r="C27" s="163"/>
@@ -2284,9 +2289,9 @@
       <c r="I27" s="163"/>
       <c r="J27" s="50"/>
     </row>
-    <row r="28" spans="1:10" ht="12.75" customHeight="1">
+    <row r="28" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="39" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B28"/>
       <c r="C28"/>
@@ -2298,7 +2303,7 @@
       <c r="I28"/>
       <c r="J28" s="50"/>
     </row>
-    <row r="29" spans="1:10" ht="12.75" customHeight="1">
+    <row r="29" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="50"/>
       <c r="B29" s="50"/>
       <c r="C29" s="50"/>
@@ -2310,7 +2315,7 @@
       <c r="I29" s="50"/>
       <c r="J29" s="50"/>
     </row>
-    <row r="30" spans="1:10" ht="12.75" customHeight="1">
+    <row r="30" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="50"/>
       <c r="B30" s="51"/>
       <c r="C30" s="41"/>
@@ -2322,7 +2327,7 @@
       <c r="I30" s="41"/>
       <c r="J30" s="50"/>
     </row>
-    <row r="31" spans="1:10" ht="12.75" customHeight="1">
+    <row r="31" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="50"/>
       <c r="B31" s="51"/>
       <c r="C31" s="41"/>
@@ -2334,7 +2339,7 @@
       <c r="I31" s="41"/>
       <c r="J31" s="50"/>
     </row>
-    <row r="32" spans="1:10" ht="12.75" customHeight="1">
+    <row r="32" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="50"/>
       <c r="B32" s="51"/>
       <c r="C32" s="41"/>
@@ -2346,7 +2351,7 @@
       <c r="I32" s="41"/>
       <c r="J32" s="50"/>
     </row>
-    <row r="33" spans="1:10" ht="12.75" customHeight="1">
+    <row r="33" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="50"/>
       <c r="B33" s="51"/>
       <c r="C33" s="41"/>
@@ -2358,7 +2363,7 @@
       <c r="I33" s="41"/>
       <c r="J33" s="50"/>
     </row>
-    <row r="34" spans="1:10" ht="12.75" customHeight="1">
+    <row r="34" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="50"/>
       <c r="B34" s="51"/>
       <c r="C34" s="41"/>
@@ -2370,7 +2375,7 @@
       <c r="I34" s="41"/>
       <c r="J34" s="50"/>
     </row>
-    <row r="35" spans="1:10" ht="12.75" customHeight="1">
+    <row r="35" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="50"/>
       <c r="B35" s="51"/>
       <c r="C35" s="41"/>
@@ -2382,7 +2387,7 @@
       <c r="I35" s="41"/>
       <c r="J35" s="50"/>
     </row>
-    <row r="36" spans="1:10" ht="12.75" customHeight="1">
+    <row r="36" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="50"/>
       <c r="B36" s="51"/>
       <c r="C36" s="41"/>
@@ -2394,7 +2399,7 @@
       <c r="I36" s="41"/>
       <c r="J36" s="50"/>
     </row>
-    <row r="37" spans="1:10" ht="12.75" customHeight="1">
+    <row r="37" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="50"/>
       <c r="B37" s="51"/>
       <c r="C37" s="41"/>
@@ -2406,7 +2411,7 @@
       <c r="I37" s="154"/>
       <c r="J37" s="50"/>
     </row>
-    <row r="38" spans="1:10" ht="12.75" customHeight="1">
+    <row r="38" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="50"/>
       <c r="B38" s="50"/>
       <c r="C38" s="50"/>
@@ -2418,7 +2423,7 @@
       <c r="I38" s="50"/>
       <c r="J38" s="50"/>
     </row>
-    <row r="39" spans="1:10" ht="12.75" customHeight="1">
+    <row r="39" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="50"/>
       <c r="B39" s="50"/>
       <c r="C39" s="50"/>
@@ -2430,7 +2435,7 @@
       <c r="I39" s="50"/>
       <c r="J39" s="50"/>
     </row>
-    <row r="40" spans="1:10" ht="12.75" customHeight="1">
+    <row r="40" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="50"/>
       <c r="B40" s="50"/>
       <c r="C40" s="50"/>
@@ -2442,7 +2447,7 @@
       <c r="I40" s="50"/>
       <c r="J40" s="50"/>
     </row>
-    <row r="41" spans="1:10" ht="12.75" customHeight="1">
+    <row r="41" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="50"/>
       <c r="B41" s="50"/>
       <c r="C41" s="50"/>
@@ -2454,7 +2459,7 @@
       <c r="I41" s="50"/>
       <c r="J41" s="50"/>
     </row>
-    <row r="42" spans="1:10" ht="12.75" customHeight="1">
+    <row r="42" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="50"/>
       <c r="B42" s="50"/>
       <c r="C42" s="50"/>
@@ -2466,7 +2471,7 @@
       <c r="I42" s="50"/>
       <c r="J42" s="50"/>
     </row>
-    <row r="43" spans="1:10" ht="12.75" customHeight="1">
+    <row r="43" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="50"/>
       <c r="B43" s="50"/>
       <c r="C43" s="50"/>
@@ -2478,7 +2483,7 @@
       <c r="I43" s="50"/>
       <c r="J43" s="50"/>
     </row>
-    <row r="44" spans="1:10" ht="12.75" customHeight="1">
+    <row r="44" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="50"/>
       <c r="B44" s="50"/>
       <c r="C44" s="50"/>
@@ -2490,7 +2495,7 @@
       <c r="I44" s="50"/>
       <c r="J44" s="50"/>
     </row>
-    <row r="45" spans="1:10" ht="12.75" customHeight="1">
+    <row r="45" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="50"/>
       <c r="B45" s="50"/>
       <c r="C45" s="50"/>
@@ -2502,7 +2507,7 @@
       <c r="I45" s="50"/>
       <c r="J45" s="50"/>
     </row>
-    <row r="46" spans="1:10" ht="15.75">
+    <row r="46" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="50"/>
       <c r="B46" s="50"/>
       <c r="C46" s="50"/>
@@ -2514,7 +2519,7 @@
       <c r="I46" s="50"/>
       <c r="J46" s="50"/>
     </row>
-    <row r="47" spans="1:10" ht="15.75">
+    <row r="47" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="50"/>
       <c r="B47" s="50"/>
       <c r="C47" s="50"/>
@@ -2526,7 +2531,7 @@
       <c r="I47" s="50"/>
       <c r="J47" s="50"/>
     </row>
-    <row r="48" spans="1:10" ht="15.75">
+    <row r="48" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="50"/>
       <c r="B48" s="50"/>
       <c r="C48" s="50"/>
@@ -2538,7 +2543,7 @@
       <c r="I48" s="50"/>
       <c r="J48" s="50"/>
     </row>
-    <row r="49" spans="1:10" ht="15.75">
+    <row r="49" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="50"/>
       <c r="B49" s="50"/>
       <c r="C49" s="50"/>
@@ -2550,7 +2555,7 @@
       <c r="I49" s="50"/>
       <c r="J49" s="50"/>
     </row>
-    <row r="50" spans="1:10" ht="15.75">
+    <row r="50" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="50"/>
       <c r="B50" s="50"/>
       <c r="C50" s="50"/>
@@ -2562,7 +2567,7 @@
       <c r="I50" s="50"/>
       <c r="J50" s="50"/>
     </row>
-    <row r="51" spans="1:10" ht="15.75">
+    <row r="51" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="50"/>
       <c r="B51" s="50"/>
       <c r="C51" s="50"/>
@@ -2574,7 +2579,7 @@
       <c r="I51" s="50"/>
       <c r="J51" s="50"/>
     </row>
-    <row r="52" spans="1:10" ht="15.75">
+    <row r="52" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="50"/>
       <c r="B52" s="50"/>
       <c r="C52" s="50"/>
@@ -2586,7 +2591,7 @@
       <c r="I52" s="50"/>
       <c r="J52" s="50"/>
     </row>
-    <row r="53" spans="1:10" ht="15.75">
+    <row r="53" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="50"/>
       <c r="B53" s="50"/>
       <c r="C53" s="50"/>
@@ -2598,7 +2603,7 @@
       <c r="I53" s="50"/>
       <c r="J53" s="50"/>
     </row>
-    <row r="54" spans="1:10" ht="15.75">
+    <row r="54" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="50"/>
       <c r="B54" s="50"/>
       <c r="C54" s="50"/>
@@ -2610,7 +2615,7 @@
       <c r="I54" s="50"/>
       <c r="J54" s="50"/>
     </row>
-    <row r="55" spans="1:10" ht="15.75">
+    <row r="55" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="50"/>
       <c r="B55" s="50"/>
       <c r="C55" s="50"/>
@@ -2622,7 +2627,7 @@
       <c r="I55" s="50"/>
       <c r="J55" s="50"/>
     </row>
-    <row r="56" spans="1:10" ht="15.75">
+    <row r="56" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="50"/>
       <c r="B56" s="50"/>
       <c r="C56" s="50"/>
@@ -2634,7 +2639,7 @@
       <c r="I56" s="50"/>
       <c r="J56" s="50"/>
     </row>
-    <row r="57" spans="1:10" ht="15.75">
+    <row r="57" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="50"/>
       <c r="B57" s="50"/>
       <c r="C57" s="50"/>
@@ -2646,7 +2651,7 @@
       <c r="I57" s="50"/>
       <c r="J57" s="50"/>
     </row>
-    <row r="58" spans="1:10" ht="15.75">
+    <row r="58" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="50"/>
       <c r="B58" s="50"/>
       <c r="C58" s="50"/>
@@ -2658,7 +2663,7 @@
       <c r="I58" s="50"/>
       <c r="J58" s="50"/>
     </row>
-    <row r="59" spans="1:10" ht="15.75">
+    <row r="59" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="50"/>
       <c r="B59" s="50"/>
       <c r="C59" s="50"/>
@@ -2670,7 +2675,7 @@
       <c r="I59" s="50"/>
       <c r="J59" s="50"/>
     </row>
-    <row r="60" spans="1:10" ht="15.75">
+    <row r="60" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="50"/>
       <c r="B60" s="50"/>
       <c r="C60" s="50"/>
@@ -2682,7 +2687,7 @@
       <c r="I60" s="50"/>
       <c r="J60" s="50"/>
     </row>
-    <row r="61" spans="1:10" ht="15.75">
+    <row r="61" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="50"/>
       <c r="B61" s="50"/>
       <c r="C61" s="50"/>
@@ -2694,7 +2699,7 @@
       <c r="I61" s="50"/>
       <c r="J61" s="50"/>
     </row>
-    <row r="62" spans="1:10" ht="15.75">
+    <row r="62" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="50"/>
       <c r="B62" s="50"/>
       <c r="C62" s="50"/>
@@ -2706,7 +2711,7 @@
       <c r="I62" s="50"/>
       <c r="J62" s="50"/>
     </row>
-    <row r="63" spans="1:10" ht="15.75">
+    <row r="63" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="50"/>
       <c r="B63" s="50"/>
       <c r="C63" s="50"/>
@@ -2718,7 +2723,7 @@
       <c r="I63" s="50"/>
       <c r="J63" s="50"/>
     </row>
-    <row r="64" spans="1:10" ht="15.75">
+    <row r="64" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="50"/>
       <c r="B64" s="50"/>
       <c r="C64" s="50"/>
@@ -2730,7 +2735,7 @@
       <c r="I64" s="50"/>
       <c r="J64" s="50"/>
     </row>
-    <row r="65" spans="1:10" ht="15.75">
+    <row r="65" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="50"/>
       <c r="B65" s="50"/>
       <c r="C65" s="50"/>
@@ -2742,7 +2747,7 @@
       <c r="I65" s="50"/>
       <c r="J65" s="50"/>
     </row>
-    <row r="66" spans="1:10" ht="15.75">
+    <row r="66" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="50"/>
       <c r="B66" s="50"/>
       <c r="C66" s="50"/>
@@ -2783,16 +2788,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK91"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="60.85546875" customWidth="1"/>
-    <col min="2" max="8" width="9.140625" style="33"/>
-    <col min="9" max="9" width="9.140625" style="139"/>
+    <col min="1" max="1" width="60.83203125" customWidth="1"/>
+    <col min="2" max="8" width="8.83203125" style="33"/>
+    <col min="9" max="9" width="8.83203125" style="139"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="14.25">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2805,7 +2810,7 @@
       <c r="H1" s="55"/>
       <c r="I1" s="135"/>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" ht="12" customHeight="1">
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
       <c r="B2" s="52"/>
       <c r="C2" s="53"/>
@@ -2816,9 +2821,9 @@
       <c r="H2" s="55"/>
       <c r="I2" s="135"/>
     </row>
-    <row r="3" spans="1:9" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="3" spans="1:9" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B3" s="56"/>
       <c r="C3" s="57"/>
@@ -2829,7 +2834,7 @@
       <c r="H3" s="55"/>
       <c r="I3" s="136"/>
     </row>
-    <row r="4" spans="1:9" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="4" spans="1:9" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
@@ -2842,7 +2847,7 @@
       <c r="H4" s="55"/>
       <c r="I4" s="136"/>
     </row>
-    <row r="5" spans="1:9" s="3" customFormat="1" ht="6" customHeight="1">
+    <row r="5" spans="1:9" s="3" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6"/>
       <c r="B5" s="61"/>
       <c r="C5" s="53"/>
@@ -2853,24 +2858,24 @@
       <c r="H5" s="55"/>
       <c r="I5" s="136"/>
     </row>
-    <row r="6" spans="1:9" s="7" customFormat="1" ht="12" customHeight="1">
+    <row r="6" spans="1:9" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="165" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="175" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C6" s="176"/>
       <c r="D6" s="176"/>
       <c r="E6" s="177"/>
       <c r="F6" s="184" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G6" s="185"/>
       <c r="H6" s="185"/>
       <c r="I6" s="185"/>
     </row>
-    <row r="7" spans="1:9" s="7" customFormat="1" ht="12" customHeight="1">
+    <row r="7" spans="1:9" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="166"/>
       <c r="B7" s="178"/>
       <c r="C7" s="179"/>
@@ -2881,30 +2886,30 @@
       <c r="H7" s="187"/>
       <c r="I7" s="187"/>
     </row>
-    <row r="8" spans="1:9" s="7" customFormat="1" ht="12" customHeight="1">
+    <row r="8" spans="1:9" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="166"/>
       <c r="B8" s="169" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C8" s="168" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D8" s="168"/>
       <c r="E8" s="181" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F8" s="172" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G8" s="168" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H8" s="168"/>
       <c r="I8" s="188" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="7" customFormat="1" ht="12" customHeight="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="166"/>
       <c r="B9" s="170"/>
       <c r="C9" s="168"/>
@@ -2915,7 +2920,7 @@
       <c r="H9" s="168"/>
       <c r="I9" s="189"/>
     </row>
-    <row r="10" spans="1:9" s="7" customFormat="1" ht="12" customHeight="1">
+    <row r="10" spans="1:9" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="167"/>
       <c r="B10" s="171"/>
       <c r="C10" s="99" t="s">
@@ -2934,7 +2939,7 @@
       </c>
       <c r="I10" s="190"/>
     </row>
-    <row r="11" spans="1:9" s="3" customFormat="1" ht="6" customHeight="1">
+    <row r="11" spans="1:9" s="3" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="8"/>
       <c r="B11" s="64"/>
       <c r="C11" s="65"/>
@@ -2945,7 +2950,7 @@
       <c r="H11" s="66"/>
       <c r="I11" s="136"/>
     </row>
-    <row r="12" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1">
+    <row r="12" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="90" t="s">
         <v>5</v>
       </c>
@@ -2970,7 +2975,7 @@
       </c>
       <c r="I12" s="127"/>
     </row>
-    <row r="13" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1">
+    <row r="13" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="8"/>
       <c r="B13" s="68"/>
       <c r="C13" s="68"/>
@@ -2981,7 +2986,7 @@
       <c r="H13" s="86"/>
       <c r="I13" s="128"/>
     </row>
-    <row r="14" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1">
+    <row r="14" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="91" t="s">
         <v>6</v>
       </c>
@@ -2994,7 +2999,7 @@
       <c r="H14" s="86"/>
       <c r="I14" s="128"/>
     </row>
-    <row r="15" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1">
+    <row r="15" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="92" t="s">
         <v>7</v>
       </c>
@@ -3007,7 +3012,7 @@
       <c r="H15" s="86"/>
       <c r="I15" s="128"/>
     </row>
-    <row r="16" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1">
+    <row r="16" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="12" t="s">
         <v>8</v>
       </c>
@@ -3032,7 +3037,7 @@
       </c>
       <c r="I16" s="128"/>
     </row>
-    <row r="17" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1">
+    <row r="17" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="12" t="s">
         <v>9</v>
       </c>
@@ -3057,7 +3062,7 @@
       </c>
       <c r="I17" s="128"/>
     </row>
-    <row r="18" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1">
+    <row r="18" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="12" t="s">
         <v>10</v>
       </c>
@@ -3082,7 +3087,7 @@
       </c>
       <c r="I18" s="128"/>
     </row>
-    <row r="19" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1">
+    <row r="19" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="92" t="s">
         <v>11</v>
       </c>
@@ -3095,7 +3100,7 @@
       <c r="H19" s="86"/>
       <c r="I19" s="128"/>
     </row>
-    <row r="20" spans="1:9" s="3" customFormat="1" ht="12.75">
+    <row r="20" spans="1:9" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A20" s="12" t="s">
         <v>8</v>
       </c>
@@ -3120,7 +3125,7 @@
       </c>
       <c r="I20" s="128"/>
     </row>
-    <row r="21" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1">
+    <row r="21" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="12" t="s">
         <v>9</v>
       </c>
@@ -3145,7 +3150,7 @@
       </c>
       <c r="I21" s="128"/>
     </row>
-    <row r="22" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1">
+    <row r="22" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="12" t="s">
         <v>10</v>
       </c>
@@ -3170,7 +3175,7 @@
       </c>
       <c r="I22" s="128"/>
     </row>
-    <row r="23" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1">
+    <row r="23" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="92" t="s">
         <v>12</v>
       </c>
@@ -3183,7 +3188,7 @@
       <c r="H23" s="86"/>
       <c r="I23" s="128"/>
     </row>
-    <row r="24" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1">
+    <row r="24" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="12" t="s">
         <v>8</v>
       </c>
@@ -3208,7 +3213,7 @@
       </c>
       <c r="I24" s="128"/>
     </row>
-    <row r="25" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1">
+    <row r="25" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="12" t="s">
         <v>9</v>
       </c>
@@ -3233,7 +3238,7 @@
       </c>
       <c r="I25" s="128"/>
     </row>
-    <row r="26" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1">
+    <row r="26" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="12" t="s">
         <v>10</v>
       </c>
@@ -3258,7 +3263,7 @@
       </c>
       <c r="I26" s="128"/>
     </row>
-    <row r="27" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1">
+    <row r="27" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="93" t="s">
         <v>13</v>
       </c>
@@ -3271,9 +3276,9 @@
       <c r="H27" s="86"/>
       <c r="I27" s="128"/>
     </row>
-    <row r="28" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1">
+    <row r="28" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B28" s="68">
         <v>11.7</v>
@@ -3296,9 +3301,9 @@
       </c>
       <c r="I28" s="128"/>
     </row>
-    <row r="29" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1">
+    <row r="29" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B29" s="68">
         <v>14.8</v>
@@ -3321,9 +3326,9 @@
       </c>
       <c r="I29" s="128"/>
     </row>
-    <row r="30" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1">
+    <row r="30" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B30" s="68">
         <v>27.6</v>
@@ -3346,7 +3351,7 @@
       </c>
       <c r="I30" s="128"/>
     </row>
-    <row r="31" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1">
+    <row r="31" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="12" t="s">
         <v>14</v>
       </c>
@@ -3371,7 +3376,7 @@
       </c>
       <c r="I31" s="128"/>
     </row>
-    <row r="32" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1">
+    <row r="32" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="94"/>
       <c r="B32" s="69"/>
       <c r="C32" s="68"/>
@@ -3382,7 +3387,7 @@
       <c r="H32" s="86"/>
       <c r="I32" s="128"/>
     </row>
-    <row r="33" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1">
+    <row r="33" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="90" t="s">
         <v>15</v>
       </c>
@@ -3395,7 +3400,7 @@
       <c r="H33" s="86"/>
       <c r="I33" s="128"/>
     </row>
-    <row r="34" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1">
+    <row r="34" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="95" t="s">
         <v>16</v>
       </c>
@@ -3420,7 +3425,7 @@
       </c>
       <c r="I34" s="128"/>
     </row>
-    <row r="35" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1">
+    <row r="35" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="95" t="s">
         <v>17</v>
       </c>
@@ -3445,7 +3450,7 @@
       </c>
       <c r="I35" s="128"/>
     </row>
-    <row r="36" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1">
+    <row r="36" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="95" t="s">
         <v>18</v>
       </c>
@@ -3470,7 +3475,7 @@
       </c>
       <c r="I36" s="128"/>
     </row>
-    <row r="37" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1">
+    <row r="37" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="95" t="s">
         <v>19</v>
       </c>
@@ -3495,7 +3500,7 @@
       </c>
       <c r="I37" s="128"/>
     </row>
-    <row r="38" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1">
+    <row r="38" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="95" t="s">
         <v>20</v>
       </c>
@@ -3520,7 +3525,7 @@
       </c>
       <c r="I38" s="128"/>
     </row>
-    <row r="39" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1">
+    <row r="39" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="95" t="s">
         <v>21</v>
       </c>
@@ -3545,7 +3550,7 @@
       </c>
       <c r="I39" s="128"/>
     </row>
-    <row r="40" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1">
+    <row r="40" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="95" t="s">
         <v>22</v>
       </c>
@@ -3569,10 +3574,10 @@
         <v>5.6</v>
       </c>
       <c r="I40" s="128" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="95" t="s">
         <v>23</v>
       </c>
@@ -3597,7 +3602,7 @@
       </c>
       <c r="I41" s="128"/>
     </row>
-    <row r="42" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1">
+    <row r="42" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="13" t="s">
         <v>24</v>
       </c>
@@ -3622,7 +3627,7 @@
       </c>
       <c r="I42" s="128"/>
     </row>
-    <row r="43" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1">
+    <row r="43" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="13"/>
       <c r="B43" s="68"/>
       <c r="C43" s="68"/>
@@ -3633,7 +3638,7 @@
       <c r="H43" s="86"/>
       <c r="I43" s="128"/>
     </row>
-    <row r="44" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1">
+    <row r="44" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="90" t="s">
         <v>25</v>
       </c>
@@ -3646,7 +3651,7 @@
       <c r="H44" s="86"/>
       <c r="I44" s="128"/>
     </row>
-    <row r="45" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1">
+    <row r="45" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="12" t="s">
         <v>26</v>
       </c>
@@ -3671,9 +3676,9 @@
       </c>
       <c r="I45" s="128"/>
     </row>
-    <row r="46" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1">
+    <row r="46" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B46" s="68">
         <v>58.2</v>
@@ -3696,9 +3701,9 @@
       </c>
       <c r="I46" s="128"/>
     </row>
-    <row r="47" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1">
+    <row r="47" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B47" s="68">
         <v>88.8</v>
@@ -3721,9 +3726,9 @@
       </c>
       <c r="I47" s="128"/>
     </row>
-    <row r="48" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1">
+    <row r="48" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B48" s="68">
         <v>53.9</v>
@@ -3746,9 +3751,9 @@
       </c>
       <c r="I48" s="128"/>
     </row>
-    <row r="49" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1">
+    <row r="49" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B49" s="68">
         <v>58.7</v>
@@ -3771,7 +3776,7 @@
       </c>
       <c r="I49" s="128"/>
     </row>
-    <row r="50" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1">
+    <row r="50" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="12"/>
       <c r="B50" s="68"/>
       <c r="C50" s="68"/>
@@ -3782,9 +3787,9 @@
       <c r="H50" s="86"/>
       <c r="I50" s="128"/>
     </row>
-    <row r="51" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1">
+    <row r="51" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="96" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B51" s="69"/>
       <c r="C51" s="68"/>
@@ -3795,7 +3800,7 @@
       <c r="H51" s="86"/>
       <c r="I51" s="128"/>
     </row>
-    <row r="52" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1">
+    <row r="52" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="12" t="s">
         <v>27</v>
       </c>
@@ -3820,7 +3825,7 @@
       </c>
       <c r="I52" s="128"/>
     </row>
-    <row r="53" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1">
+    <row r="53" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="12" t="s">
         <v>9</v>
       </c>
@@ -3845,7 +3850,7 @@
       </c>
       <c r="I53" s="128"/>
     </row>
-    <row r="54" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1">
+    <row r="54" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="12" t="s">
         <v>28</v>
       </c>
@@ -3870,7 +3875,7 @@
       </c>
       <c r="I54" s="128"/>
     </row>
-    <row r="55" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1">
+    <row r="55" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="12" t="s">
         <v>29</v>
       </c>
@@ -3883,7 +3888,7 @@
       <c r="H55" s="86"/>
       <c r="I55" s="128"/>
     </row>
-    <row r="56" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1">
+    <row r="56" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="96" t="s">
         <v>30</v>
       </c>
@@ -3896,9 +3901,9 @@
       <c r="H56" s="86"/>
       <c r="I56" s="128"/>
     </row>
-    <row r="57" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1">
+    <row r="57" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B57" s="69">
         <v>83.8</v>
@@ -3921,7 +3926,7 @@
       </c>
       <c r="I57" s="128"/>
     </row>
-    <row r="58" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1">
+    <row r="58" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="12" t="s">
         <v>31</v>
       </c>
@@ -3946,7 +3951,7 @@
       </c>
       <c r="I58" s="128"/>
     </row>
-    <row r="59" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1">
+    <row r="59" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="12" t="s">
         <v>32</v>
       </c>
@@ -3971,7 +3976,7 @@
       </c>
       <c r="I59" s="128"/>
     </row>
-    <row r="60" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1">
+    <row r="60" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="97" t="s">
         <v>33</v>
       </c>
@@ -3996,7 +4001,7 @@
       </c>
       <c r="I60" s="128"/>
     </row>
-    <row r="61" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1">
+    <row r="61" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="12" t="s">
         <v>34</v>
       </c>
@@ -4021,7 +4026,7 @@
       </c>
       <c r="I61" s="128"/>
     </row>
-    <row r="62" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1">
+    <row r="62" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="97" t="s">
         <v>35</v>
       </c>
@@ -4046,7 +4051,7 @@
       </c>
       <c r="I62" s="128"/>
     </row>
-    <row r="63" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1">
+    <row r="63" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="12" t="s">
         <v>36</v>
       </c>
@@ -4071,7 +4076,7 @@
       </c>
       <c r="I63" s="128"/>
     </row>
-    <row r="64" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1">
+    <row r="64" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="12" t="s">
         <v>37</v>
       </c>
@@ -4096,7 +4101,7 @@
       </c>
       <c r="I64" s="128"/>
     </row>
-    <row r="65" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1">
+    <row r="65" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="12" t="s">
         <v>38</v>
       </c>
@@ -4121,7 +4126,7 @@
       </c>
       <c r="I65" s="128"/>
     </row>
-    <row r="66" spans="1:9" s="15" customFormat="1" ht="12" customHeight="1">
+    <row r="66" spans="1:9" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="12" t="s">
         <v>39</v>
       </c>
@@ -4146,7 +4151,7 @@
       </c>
       <c r="I66" s="128"/>
     </row>
-    <row r="67" spans="1:9" s="15" customFormat="1" ht="12" customHeight="1">
+    <row r="67" spans="1:9" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="12" t="s">
         <v>40</v>
       </c>
@@ -4171,7 +4176,7 @@
       </c>
       <c r="I67" s="128"/>
     </row>
-    <row r="68" spans="1:9" s="15" customFormat="1" ht="12" customHeight="1">
+    <row r="68" spans="1:9" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="12" t="s">
         <v>41</v>
       </c>
@@ -4196,7 +4201,7 @@
       </c>
       <c r="I68" s="128"/>
     </row>
-    <row r="69" spans="1:9" s="15" customFormat="1" ht="12" customHeight="1">
+    <row r="69" spans="1:9" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="12" t="s">
         <v>42</v>
       </c>
@@ -4221,7 +4226,7 @@
       </c>
       <c r="I69" s="128"/>
     </row>
-    <row r="70" spans="1:9" s="15" customFormat="1" ht="12" customHeight="1">
+    <row r="70" spans="1:9" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="12" t="s">
         <v>43</v>
       </c>
@@ -4246,7 +4251,7 @@
       </c>
       <c r="I70" s="128"/>
     </row>
-    <row r="71" spans="1:9" s="15" customFormat="1" ht="12" customHeight="1">
+    <row r="71" spans="1:9" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="97" t="s">
         <v>44</v>
       </c>
@@ -4271,9 +4276,9 @@
       </c>
       <c r="I71" s="128"/>
     </row>
-    <row r="72" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1">
+    <row r="72" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B72" s="70">
         <v>17.2</v>
@@ -4296,7 +4301,7 @@
       </c>
       <c r="I72" s="128"/>
     </row>
-    <row r="73" spans="1:9" s="15" customFormat="1" ht="12" customHeight="1">
+    <row r="73" spans="1:9" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="12" t="s">
         <v>45</v>
       </c>
@@ -4321,7 +4326,7 @@
       </c>
       <c r="I73" s="128"/>
     </row>
-    <row r="74" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1">
+    <row r="74" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="98"/>
       <c r="B74" s="71"/>
       <c r="C74" s="72"/>
@@ -4332,7 +4337,7 @@
       <c r="H74" s="72"/>
       <c r="I74" s="137"/>
     </row>
-    <row r="75" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1">
+    <row r="75" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="12"/>
       <c r="B75" s="74"/>
       <c r="C75" s="75"/>
@@ -4343,7 +4348,7 @@
       <c r="H75" s="75"/>
       <c r="I75" s="136"/>
     </row>
-    <row r="76" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1">
+    <row r="76" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="16" t="s">
         <v>46</v>
       </c>
@@ -4356,7 +4361,7 @@
       <c r="H76" s="75"/>
       <c r="I76" s="136"/>
     </row>
-    <row r="77" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1">
+    <row r="77" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="16" t="s">
         <v>47</v>
       </c>
@@ -4369,9 +4374,9 @@
       <c r="H77" s="75"/>
       <c r="I77" s="136"/>
     </row>
-    <row r="78" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1">
+    <row r="78" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B78" s="60"/>
       <c r="C78" s="75"/>
@@ -4382,9 +4387,9 @@
       <c r="H78" s="75"/>
       <c r="I78" s="136"/>
     </row>
-    <row r="79" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1">
+    <row r="79" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B79" s="60"/>
       <c r="C79" s="76"/>
@@ -4395,9 +4400,9 @@
       <c r="H79" s="55"/>
       <c r="I79" s="136"/>
     </row>
-    <row r="80" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1">
+    <row r="80" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B80" s="60"/>
       <c r="C80" s="76"/>
@@ -4408,9 +4413,9 @@
       <c r="H80" s="55"/>
       <c r="I80" s="136"/>
     </row>
-    <row r="81" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
+    <row r="81" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B81" s="60"/>
       <c r="C81" s="76"/>
@@ -4421,9 +4426,9 @@
       <c r="H81" s="55"/>
       <c r="I81" s="136"/>
     </row>
-    <row r="82" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
+    <row r="82" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B82" s="77"/>
       <c r="C82" s="77"/>
@@ -4434,9 +4439,9 @@
       <c r="H82" s="78"/>
       <c r="I82" s="136"/>
     </row>
-    <row r="83" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
+    <row r="83" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B83" s="77"/>
       <c r="C83" s="77"/>
@@ -4447,9 +4452,9 @@
       <c r="H83" s="79"/>
       <c r="I83" s="136"/>
     </row>
-    <row r="84" spans="1:37" s="20" customFormat="1" ht="12.75">
+    <row r="84" spans="1:37" s="20" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A84" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B84" s="60"/>
       <c r="C84" s="76"/>
@@ -4460,7 +4465,7 @@
       <c r="H84" s="55"/>
       <c r="I84" s="138"/>
     </row>
-    <row r="85" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
+    <row r="85" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="15"/>
       <c r="B85" s="77"/>
       <c r="C85" s="77"/>
@@ -4471,9 +4476,9 @@
       <c r="H85" s="79"/>
       <c r="I85" s="136"/>
     </row>
-    <row r="86" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
+    <row r="86" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="158" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B86" s="33"/>
       <c r="C86" s="33"/>
@@ -4484,9 +4489,9 @@
       <c r="H86" s="33"/>
       <c r="I86" s="136"/>
     </row>
-    <row r="87" spans="1:37" s="112" customFormat="1" ht="11.25">
+    <row r="87" spans="1:37" s="112" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A87" s="157" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B87" s="86"/>
       <c r="C87" s="86"/>
@@ -4525,7 +4530,7 @@
       <c r="AJ87" s="86"/>
       <c r="AK87" s="86"/>
     </row>
-    <row r="88" spans="1:37" s="112" customFormat="1" ht="11.25">
+    <row r="88" spans="1:37" s="112" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A88" s="113"/>
       <c r="B88" s="86"/>
       <c r="C88" s="86"/>
@@ -4564,7 +4569,7 @@
       <c r="AJ88" s="86"/>
       <c r="AK88" s="86"/>
     </row>
-    <row r="89" spans="1:37" s="112" customFormat="1" ht="11.25">
+    <row r="89" spans="1:37" s="112" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A89" s="113" t="s">
         <v>48</v>
       </c>
@@ -4605,7 +4610,7 @@
       <c r="AJ89" s="86"/>
       <c r="AK89" s="86"/>
     </row>
-    <row r="90" spans="1:37" s="112" customFormat="1" ht="11.25">
+    <row r="90" spans="1:37" s="112" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="B90" s="86"/>
       <c r="C90" s="86"/>
       <c r="D90" s="86"/>
@@ -4643,7 +4648,7 @@
       <c r="AJ90" s="86"/>
       <c r="AK90" s="86"/>
     </row>
-    <row r="91" spans="1:37" s="112" customFormat="1" ht="11.25">
+    <row r="91" spans="1:37" s="112" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="B91" s="86"/>
       <c r="C91" s="86"/>
       <c r="D91" s="86"/>
@@ -4706,17 +4711,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK77"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.7109375" customWidth="1"/>
-    <col min="2" max="8" width="9.140625" style="33"/>
+    <col min="1" max="1" width="39.6640625" customWidth="1"/>
+    <col min="2" max="8" width="8.83203125" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="22" customFormat="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:9" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="21" t="s">
-        <v>49</v>
+        <v>179</v>
       </c>
       <c r="B1" s="52"/>
       <c r="C1" s="53"/>
@@ -4726,7 +4731,7 @@
       <c r="G1" s="55"/>
       <c r="H1" s="55"/>
     </row>
-    <row r="2" spans="1:9" s="22" customFormat="1" ht="12" customHeight="1">
+    <row r="2" spans="1:9" s="22" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="21"/>
       <c r="B2" s="52"/>
       <c r="C2" s="53"/>
@@ -4736,9 +4741,9 @@
       <c r="G2" s="55"/>
       <c r="H2" s="55"/>
     </row>
-    <row r="3" spans="1:9" s="24" customFormat="1" ht="16.5" customHeight="1">
+    <row r="3" spans="1:9" s="24" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B3" s="56"/>
       <c r="C3" s="57"/>
@@ -4748,7 +4753,7 @@
       <c r="G3" s="55"/>
       <c r="H3" s="55"/>
     </row>
-    <row r="4" spans="1:9" s="24" customFormat="1" ht="16.5" customHeight="1">
+    <row r="4" spans="1:9" s="24" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="25" t="s">
         <v>1</v>
       </c>
@@ -4760,7 +4765,7 @@
       <c r="G4" s="55"/>
       <c r="H4" s="55"/>
     </row>
-    <row r="5" spans="1:9" s="3" customFormat="1" ht="6" customHeight="1">
+    <row r="5" spans="1:9" s="3" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6"/>
       <c r="B5" s="61"/>
       <c r="C5" s="53"/>
@@ -4770,24 +4775,24 @@
       <c r="G5" s="55"/>
       <c r="H5" s="55"/>
     </row>
-    <row r="6" spans="1:9" s="7" customFormat="1" ht="12" customHeight="1">
+    <row r="6" spans="1:9" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="191" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="175" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C6" s="176"/>
       <c r="D6" s="176"/>
       <c r="E6" s="177"/>
       <c r="F6" s="184" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G6" s="185"/>
       <c r="H6" s="185"/>
       <c r="I6" s="185"/>
     </row>
-    <row r="7" spans="1:9" s="7" customFormat="1" ht="12" customHeight="1">
+    <row r="7" spans="1:9" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="192"/>
       <c r="B7" s="178"/>
       <c r="C7" s="179"/>
@@ -4798,30 +4803,30 @@
       <c r="H7" s="187"/>
       <c r="I7" s="187"/>
     </row>
-    <row r="8" spans="1:9" s="7" customFormat="1" ht="12" customHeight="1">
+    <row r="8" spans="1:9" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="192"/>
       <c r="B8" s="169" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C8" s="168" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D8" s="168"/>
       <c r="E8" s="181" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F8" s="172" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G8" s="168" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H8" s="168"/>
       <c r="I8" s="188" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="7" customFormat="1" ht="12" customHeight="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="192"/>
       <c r="B9" s="170"/>
       <c r="C9" s="168"/>
@@ -4832,7 +4837,7 @@
       <c r="H9" s="168"/>
       <c r="I9" s="189"/>
     </row>
-    <row r="10" spans="1:9" s="7" customFormat="1" ht="12" customHeight="1">
+    <row r="10" spans="1:9" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="193"/>
       <c r="B10" s="171"/>
       <c r="C10" s="99" t="s">
@@ -4851,7 +4856,7 @@
       </c>
       <c r="I10" s="190"/>
     </row>
-    <row r="11" spans="1:9" s="3" customFormat="1" ht="6" customHeight="1">
+    <row r="11" spans="1:9" s="3" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="94"/>
       <c r="B11" s="64"/>
       <c r="C11" s="65"/>
@@ -4861,7 +4866,7 @@
       <c r="G11" s="66"/>
       <c r="H11" s="66"/>
     </row>
-    <row r="12" spans="1:9" s="24" customFormat="1" ht="12" customHeight="1">
+    <row r="12" spans="1:9" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="90" t="s">
         <v>5</v>
       </c>
@@ -4886,7 +4891,7 @@
       </c>
       <c r="I12" s="125"/>
     </row>
-    <row r="13" spans="1:9" s="24" customFormat="1" ht="12" customHeight="1">
+    <row r="13" spans="1:9" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="100"/>
       <c r="B13" s="81"/>
       <c r="C13" s="81"/>
@@ -4897,9 +4902,9 @@
       <c r="H13" s="124"/>
       <c r="I13" s="126"/>
     </row>
-    <row r="14" spans="1:9" s="24" customFormat="1" ht="12" customHeight="1">
+    <row r="14" spans="1:9" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="101" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14" s="55"/>
       <c r="C14" s="67"/>
@@ -4910,9 +4915,9 @@
       <c r="H14" s="124"/>
       <c r="I14" s="126"/>
     </row>
-    <row r="15" spans="1:9" s="24" customFormat="1" ht="12" customHeight="1">
+    <row r="15" spans="1:9" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="102" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B15" s="55"/>
       <c r="C15" s="67"/>
@@ -4923,9 +4928,9 @@
       <c r="H15" s="124"/>
       <c r="I15" s="126"/>
     </row>
-    <row r="16" spans="1:9" s="24" customFormat="1" ht="12" customHeight="1">
+    <row r="16" spans="1:9" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="103" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B16" s="10">
         <v>5</v>
@@ -4948,9 +4953,9 @@
       </c>
       <c r="I16" s="126"/>
     </row>
-    <row r="17" spans="1:9" s="24" customFormat="1" ht="12" customHeight="1">
+    <row r="17" spans="1:9" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="103" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B17" s="10">
         <v>5.6</v>
@@ -4972,12 +4977,12 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="I17" s="126" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="24" customFormat="1" ht="12" customHeight="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="103" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B18" s="9">
         <v>12</v>
@@ -5000,9 +5005,9 @@
       </c>
       <c r="I18" s="126"/>
     </row>
-    <row r="19" spans="1:9" s="24" customFormat="1" ht="12" customHeight="1">
+    <row r="19" spans="1:9" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="103" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B19" s="10">
         <v>32.1</v>
@@ -5025,9 +5030,9 @@
       </c>
       <c r="I19" s="126"/>
     </row>
-    <row r="20" spans="1:9" s="24" customFormat="1" ht="12" customHeight="1">
+    <row r="20" spans="1:9" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="103" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B20" s="10">
         <v>45.3</v>
@@ -5050,9 +5055,9 @@
       </c>
       <c r="I20" s="126"/>
     </row>
-    <row r="21" spans="1:9" s="24" customFormat="1" ht="12" customHeight="1">
+    <row r="21" spans="1:9" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="102" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -5063,9 +5068,9 @@
       <c r="H21" s="124"/>
       <c r="I21" s="126"/>
     </row>
-    <row r="22" spans="1:9" s="24" customFormat="1" ht="12" customHeight="1">
+    <row r="22" spans="1:9" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="103" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B22" s="9">
         <v>8.1</v>
@@ -5088,9 +5093,9 @@
       </c>
       <c r="I22" s="126"/>
     </row>
-    <row r="23" spans="1:9" s="24" customFormat="1" ht="12" customHeight="1">
+    <row r="23" spans="1:9" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="103" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B23" s="10">
         <v>8</v>
@@ -5113,9 +5118,9 @@
       </c>
       <c r="I23" s="126"/>
     </row>
-    <row r="24" spans="1:9" s="24" customFormat="1" ht="12" customHeight="1">
+    <row r="24" spans="1:9" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="103" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B24" s="10">
         <v>17</v>
@@ -5138,9 +5143,9 @@
       </c>
       <c r="I24" s="126"/>
     </row>
-    <row r="25" spans="1:9" s="24" customFormat="1" ht="12" customHeight="1">
+    <row r="25" spans="1:9" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="103" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B25" s="10">
         <v>29.2</v>
@@ -5163,9 +5168,9 @@
       </c>
       <c r="I25" s="126"/>
     </row>
-    <row r="26" spans="1:9" s="24" customFormat="1" ht="12" customHeight="1">
+    <row r="26" spans="1:9" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="103" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B26" s="9">
         <v>37.700000000000003</v>
@@ -5188,9 +5193,9 @@
       </c>
       <c r="I26" s="126"/>
     </row>
-    <row r="27" spans="1:9" s="24" customFormat="1" ht="12" customHeight="1">
+    <row r="27" spans="1:9" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -5201,9 +5206,9 @@
       <c r="H27" s="124"/>
       <c r="I27" s="126"/>
     </row>
-    <row r="28" spans="1:9" s="24" customFormat="1" ht="12" customHeight="1">
+    <row r="28" spans="1:9" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="103" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B28" s="10">
         <v>7.4</v>
@@ -5226,9 +5231,9 @@
       </c>
       <c r="I28" s="126"/>
     </row>
-    <row r="29" spans="1:9" s="24" customFormat="1" ht="12" customHeight="1">
+    <row r="29" spans="1:9" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="103" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B29" s="10">
         <v>7.6</v>
@@ -5251,9 +5256,9 @@
       </c>
       <c r="I29" s="126"/>
     </row>
-    <row r="30" spans="1:9" s="24" customFormat="1" ht="12" customHeight="1">
+    <row r="30" spans="1:9" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="103" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B30" s="10">
         <v>15.9</v>
@@ -5276,9 +5281,9 @@
       </c>
       <c r="I30" s="126"/>
     </row>
-    <row r="31" spans="1:9" s="24" customFormat="1" ht="12" customHeight="1">
+    <row r="31" spans="1:9" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="103" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B31" s="10">
         <v>26.8</v>
@@ -5301,9 +5306,9 @@
       </c>
       <c r="I31" s="126"/>
     </row>
-    <row r="32" spans="1:9" s="24" customFormat="1" ht="12" customHeight="1">
+    <row r="32" spans="1:9" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="103" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B32" s="10">
         <v>42.3</v>
@@ -5326,9 +5331,9 @@
       </c>
       <c r="I32" s="126"/>
     </row>
-    <row r="33" spans="1:9" s="24" customFormat="1" ht="12" customHeight="1">
+    <row r="33" spans="1:9" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="102" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -5339,9 +5344,9 @@
       <c r="H33" s="124"/>
       <c r="I33" s="126"/>
     </row>
-    <row r="34" spans="1:9" s="24" customFormat="1" ht="12" customHeight="1">
+    <row r="34" spans="1:9" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="103" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B34" s="11">
         <v>5.8</v>
@@ -5364,9 +5369,9 @@
       </c>
       <c r="I34" s="126"/>
     </row>
-    <row r="35" spans="1:9" s="24" customFormat="1" ht="12" customHeight="1">
+    <row r="35" spans="1:9" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="103" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B35" s="11">
         <v>5.9</v>
@@ -5389,9 +5394,9 @@
       </c>
       <c r="I35" s="126"/>
     </row>
-    <row r="36" spans="1:9" s="24" customFormat="1" ht="12" customHeight="1">
+    <row r="36" spans="1:9" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="103" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B36" s="10">
         <v>11.8</v>
@@ -5414,9 +5419,9 @@
       </c>
       <c r="I36" s="126"/>
     </row>
-    <row r="37" spans="1:9" s="24" customFormat="1" ht="12" customHeight="1">
+    <row r="37" spans="1:9" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="103" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B37" s="10">
         <v>27.2</v>
@@ -5439,9 +5444,9 @@
       </c>
       <c r="I37" s="126"/>
     </row>
-    <row r="38" spans="1:9" s="24" customFormat="1" ht="12" customHeight="1">
+    <row r="38" spans="1:9" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="103" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B38" s="10">
         <v>49.4</v>
@@ -5464,7 +5469,7 @@
       </c>
       <c r="I38" s="126"/>
     </row>
-    <row r="39" spans="1:9" s="24" customFormat="1" ht="12" customHeight="1">
+    <row r="39" spans="1:9" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="104"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -5475,9 +5480,9 @@
       <c r="H39" s="124"/>
       <c r="I39" s="126"/>
     </row>
-    <row r="40" spans="1:9" s="24" customFormat="1" ht="12" customHeight="1">
+    <row r="40" spans="1:9" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="101" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -5488,9 +5493,9 @@
       <c r="H40" s="124"/>
       <c r="I40" s="126"/>
     </row>
-    <row r="41" spans="1:9" s="24" customFormat="1" ht="12" customHeight="1">
+    <row r="41" spans="1:9" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="105" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B41" s="10">
         <v>8</v>
@@ -5513,7 +5518,7 @@
       </c>
       <c r="I41" s="126"/>
     </row>
-    <row r="42" spans="1:9" s="24" customFormat="1" ht="12" customHeight="1">
+    <row r="42" spans="1:9" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="102"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -5524,9 +5529,9 @@
       <c r="H42" s="124"/>
       <c r="I42" s="126"/>
     </row>
-    <row r="43" spans="1:9" s="24" customFormat="1" ht="12" customHeight="1">
+    <row r="43" spans="1:9" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="101" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -5537,9 +5542,9 @@
       <c r="H43" s="124"/>
       <c r="I43" s="126"/>
     </row>
-    <row r="44" spans="1:9" s="24" customFormat="1" ht="12" customHeight="1">
+    <row r="44" spans="1:9" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="105" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B44" s="10">
         <v>2.6</v>
@@ -5561,12 +5566,12 @@
         <v>4.8</v>
       </c>
       <c r="I44" s="126" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" s="24" customFormat="1" ht="12" customHeight="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="105" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B45" s="11">
         <v>20.5</v>
@@ -5589,7 +5594,7 @@
       </c>
       <c r="I45" s="126"/>
     </row>
-    <row r="46" spans="1:9" s="24" customFormat="1" ht="12" customHeight="1">
+    <row r="46" spans="1:9" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="102"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -5600,9 +5605,9 @@
       <c r="H46" s="9"/>
       <c r="I46" s="126"/>
     </row>
-    <row r="47" spans="1:9" s="24" customFormat="1" ht="12" customHeight="1">
+    <row r="47" spans="1:9" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="116" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B47" s="117"/>
       <c r="C47" s="117"/>
@@ -5613,9 +5618,9 @@
       <c r="H47" s="119"/>
       <c r="I47" s="125"/>
     </row>
-    <row r="48" spans="1:9" s="24" customFormat="1" ht="12" customHeight="1">
+    <row r="48" spans="1:9" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="105" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B48" s="131">
         <v>2.1</v>
@@ -5637,12 +5642,12 @@
         <v>3.3</v>
       </c>
       <c r="I48" s="131" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" s="24" customFormat="1" ht="12" customHeight="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="105" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B49" s="131">
         <v>4.9000000000000004</v>
@@ -5664,12 +5669,12 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="I49" s="131" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" s="24" customFormat="1" ht="12" customHeight="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="105" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B50" s="131">
         <v>25</v>
@@ -5692,9 +5697,9 @@
       </c>
       <c r="I50" s="131"/>
     </row>
-    <row r="51" spans="1:9" s="24" customFormat="1" ht="12" customHeight="1">
+    <row r="51" spans="1:9" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="105" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B51" s="131">
         <v>15.1</v>
@@ -5717,9 +5722,9 @@
       </c>
       <c r="I51" s="131"/>
     </row>
-    <row r="52" spans="1:9" s="24" customFormat="1" ht="12" customHeight="1">
+    <row r="52" spans="1:9" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="105" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B52" s="131">
         <v>48.5</v>
@@ -5742,9 +5747,9 @@
       </c>
       <c r="I52" s="131"/>
     </row>
-    <row r="53" spans="1:9" s="24" customFormat="1" ht="12" customHeight="1">
+    <row r="53" spans="1:9" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="105" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B53" s="131">
         <v>3.7</v>
@@ -5767,9 +5772,9 @@
       </c>
       <c r="I53" s="131"/>
     </row>
-    <row r="54" spans="1:9" s="24" customFormat="1" ht="12" customHeight="1">
+    <row r="54" spans="1:9" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="129" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B54" s="131">
         <v>0.8</v>
@@ -5781,22 +5786,22 @@
         <v>1</v>
       </c>
       <c r="E54" s="133" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F54" s="134" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G54" s="134" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H54" s="134" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I54" s="133" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" s="24" customFormat="1" ht="12" customHeight="1">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="103" t="s">
         <v>29</v>
       </c>
@@ -5809,9 +5814,9 @@
       <c r="H55" s="120"/>
       <c r="I55" s="125"/>
     </row>
-    <row r="56" spans="1:9" s="122" customFormat="1" ht="12" customHeight="1">
+    <row r="56" spans="1:9" s="122" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="116" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B56" s="118"/>
       <c r="C56" s="120"/>
@@ -5822,9 +5827,9 @@
       <c r="H56" s="121"/>
       <c r="I56" s="125"/>
     </row>
-    <row r="57" spans="1:9" s="122" customFormat="1" ht="12" customHeight="1">
+    <row r="57" spans="1:9" s="122" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="105" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B57" s="131">
         <v>5.8</v>
@@ -5847,9 +5852,9 @@
       </c>
       <c r="I57" s="133"/>
     </row>
-    <row r="58" spans="1:9" s="122" customFormat="1" ht="12" customHeight="1">
+    <row r="58" spans="1:9" s="122" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="105" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B58" s="131">
         <v>5.5</v>
@@ -5872,9 +5877,9 @@
       </c>
       <c r="I58" s="133"/>
     </row>
-    <row r="59" spans="1:9" s="122" customFormat="1" ht="12" customHeight="1">
+    <row r="59" spans="1:9" s="122" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="105" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B59" s="131">
         <v>22.1</v>
@@ -5897,9 +5902,9 @@
       </c>
       <c r="I59" s="133"/>
     </row>
-    <row r="60" spans="1:9" s="122" customFormat="1" ht="12" customHeight="1">
+    <row r="60" spans="1:9" s="122" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="130" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B60" s="131">
         <v>16.899999999999999</v>
@@ -5922,9 +5927,9 @@
       </c>
       <c r="I60" s="133"/>
     </row>
-    <row r="61" spans="1:9" s="122" customFormat="1" ht="12" customHeight="1">
+    <row r="61" spans="1:9" s="122" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="130" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B61" s="131">
         <v>48.9</v>
@@ -5947,9 +5952,9 @@
       </c>
       <c r="I61" s="133"/>
     </row>
-    <row r="62" spans="1:9" s="122" customFormat="1" ht="12" customHeight="1">
+    <row r="62" spans="1:9" s="122" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="159" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B62" s="131">
         <v>0.8</v>
@@ -5961,7 +5966,7 @@
         <v>1</v>
       </c>
       <c r="E62" s="133" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F62" s="131">
         <v>0.8</v>
@@ -5973,10 +5978,10 @@
         <v>1.4</v>
       </c>
       <c r="I62" s="133" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" s="24" customFormat="1" ht="12" customHeight="1">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="106"/>
       <c r="B63" s="81"/>
       <c r="C63" s="81"/>
@@ -5987,7 +5992,7 @@
       <c r="H63" s="81"/>
       <c r="I63" s="132"/>
     </row>
-    <row r="64" spans="1:9" s="24" customFormat="1" ht="12" customHeight="1">
+    <row r="64" spans="1:9" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="26"/>
       <c r="B64" s="82"/>
       <c r="C64" s="82"/>
@@ -5997,7 +6002,7 @@
       <c r="G64" s="82"/>
       <c r="H64" s="82"/>
     </row>
-    <row r="65" spans="1:37" s="24" customFormat="1" ht="12" customHeight="1">
+    <row r="65" spans="1:37" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="16" t="s">
         <v>46</v>
       </c>
@@ -6009,9 +6014,9 @@
       <c r="G65" s="75"/>
       <c r="H65" s="75"/>
     </row>
-    <row r="66" spans="1:37" s="24" customFormat="1" ht="12" customHeight="1">
+    <row r="66" spans="1:37" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" s="74"/>
       <c r="C66" s="53"/>
@@ -6021,9 +6026,9 @@
       <c r="G66" s="75"/>
       <c r="H66" s="75"/>
     </row>
-    <row r="67" spans="1:37" s="24" customFormat="1" ht="12" customHeight="1">
+    <row r="67" spans="1:37" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B67" s="74"/>
       <c r="C67" s="53"/>
@@ -6033,9 +6038,9 @@
       <c r="G67" s="55"/>
       <c r="H67" s="55"/>
     </row>
-    <row r="68" spans="1:37" s="24" customFormat="1" ht="12" customHeight="1">
+    <row r="68" spans="1:37" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B68" s="74"/>
       <c r="C68" s="53"/>
@@ -6045,9 +6050,9 @@
       <c r="G68" s="55"/>
       <c r="H68" s="55"/>
     </row>
-    <row r="69" spans="1:37" s="20" customFormat="1" ht="12.75">
+    <row r="69" spans="1:37" s="20" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A69" s="35" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B69" s="60"/>
       <c r="C69" s="76"/>
@@ -6057,9 +6062,9 @@
       <c r="G69" s="55"/>
       <c r="H69" s="55"/>
     </row>
-    <row r="70" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
+    <row r="70" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B70" s="77"/>
       <c r="C70" s="77"/>
@@ -6069,7 +6074,7 @@
       <c r="G70" s="79"/>
       <c r="H70" s="79"/>
     </row>
-    <row r="71" spans="1:37" s="24" customFormat="1" ht="12" customHeight="1">
+    <row r="71" spans="1:37" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="27"/>
       <c r="B71" s="74"/>
       <c r="C71" s="53"/>
@@ -6079,9 +6084,9 @@
       <c r="G71" s="55"/>
       <c r="H71" s="55"/>
     </row>
-    <row r="72" spans="1:37" s="112" customFormat="1" ht="11.25">
+    <row r="72" spans="1:37" s="112" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A72" s="111" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B72" s="86"/>
       <c r="C72" s="86"/>
@@ -6120,9 +6125,9 @@
       <c r="AJ72" s="86"/>
       <c r="AK72" s="86"/>
     </row>
-    <row r="73" spans="1:37" s="112" customFormat="1" ht="11.25">
+    <row r="73" spans="1:37" s="112" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A73" s="113" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B73" s="86"/>
       <c r="C73" s="86"/>
@@ -6161,9 +6166,9 @@
       <c r="AJ73" s="86"/>
       <c r="AK73" s="86"/>
     </row>
-    <row r="74" spans="1:37" s="112" customFormat="1" ht="11.25">
+    <row r="74" spans="1:37" s="112" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A74" s="157" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B74" s="86"/>
       <c r="C74" s="86"/>
@@ -6202,9 +6207,9 @@
       <c r="AJ74" s="86"/>
       <c r="AK74" s="86"/>
     </row>
-    <row r="75" spans="1:37" s="112" customFormat="1" ht="11.25">
+    <row r="75" spans="1:37" s="112" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A75" s="113" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B75" s="86"/>
       <c r="C75" s="86"/>
@@ -6243,7 +6248,7 @@
       <c r="AJ75" s="86"/>
       <c r="AK75" s="86"/>
     </row>
-    <row r="76" spans="1:37" s="112" customFormat="1" ht="11.25">
+    <row r="76" spans="1:37" s="112" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A76" s="114"/>
       <c r="B76" s="86"/>
       <c r="C76" s="86"/>
@@ -6282,7 +6287,7 @@
       <c r="AJ76" s="86"/>
       <c r="AK76" s="86"/>
     </row>
-    <row r="77" spans="1:37" s="112" customFormat="1" ht="11.25">
+    <row r="77" spans="1:37" s="112" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A77" s="114" t="s">
         <v>48</v>
       </c>
@@ -6348,17 +6353,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK90"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="44.42578125" style="3" customWidth="1"/>
-    <col min="2" max="8" width="9.140625" style="33"/>
+    <col min="1" max="1" width="44.5" style="3" customWidth="1"/>
+    <col min="2" max="8" width="8.83203125" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="22" customFormat="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:10" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" s="52"/>
       <c r="C1" s="53"/>
@@ -6368,7 +6373,7 @@
       <c r="G1" s="55"/>
       <c r="H1" s="55"/>
     </row>
-    <row r="2" spans="1:10" s="22" customFormat="1" ht="12" customHeight="1">
+    <row r="2" spans="1:10" s="22" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="21"/>
       <c r="B2" s="52"/>
       <c r="C2" s="53"/>
@@ -6378,9 +6383,9 @@
       <c r="G2" s="55"/>
       <c r="H2" s="55"/>
     </row>
-    <row r="3" spans="1:10" s="24" customFormat="1" ht="16.5" customHeight="1">
+    <row r="3" spans="1:10" s="24" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B3" s="56"/>
       <c r="C3" s="57"/>
@@ -6390,7 +6395,7 @@
       <c r="G3" s="55"/>
       <c r="H3" s="55"/>
     </row>
-    <row r="4" spans="1:10" s="24" customFormat="1" ht="16.5" customHeight="1">
+    <row r="4" spans="1:10" s="24" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="25" t="s">
         <v>1</v>
       </c>
@@ -6402,7 +6407,7 @@
       <c r="G4" s="55"/>
       <c r="H4" s="55"/>
     </row>
-    <row r="5" spans="1:10" s="3" customFormat="1" ht="6" customHeight="1">
+    <row r="5" spans="1:10" s="3" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6"/>
       <c r="B5" s="61"/>
       <c r="C5" s="53"/>
@@ -6412,24 +6417,24 @@
       <c r="G5" s="55"/>
       <c r="H5" s="55"/>
     </row>
-    <row r="6" spans="1:10" s="7" customFormat="1" ht="12" customHeight="1">
+    <row r="6" spans="1:10" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="191" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="175" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C6" s="176"/>
       <c r="D6" s="176"/>
       <c r="E6" s="177"/>
       <c r="F6" s="184" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G6" s="185"/>
       <c r="H6" s="185"/>
       <c r="I6" s="185"/>
     </row>
-    <row r="7" spans="1:10" s="7" customFormat="1" ht="12" customHeight="1">
+    <row r="7" spans="1:10" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="192"/>
       <c r="B7" s="178"/>
       <c r="C7" s="179"/>
@@ -6440,30 +6445,30 @@
       <c r="H7" s="187"/>
       <c r="I7" s="187"/>
     </row>
-    <row r="8" spans="1:10" s="7" customFormat="1" ht="12" customHeight="1">
+    <row r="8" spans="1:10" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="192"/>
       <c r="B8" s="169" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C8" s="168" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D8" s="168"/>
       <c r="E8" s="181" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F8" s="172" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G8" s="168" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H8" s="168"/>
       <c r="I8" s="188" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="7" customFormat="1" ht="12" customHeight="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="192"/>
       <c r="B9" s="170"/>
       <c r="C9" s="168"/>
@@ -6474,7 +6479,7 @@
       <c r="H9" s="168"/>
       <c r="I9" s="189"/>
     </row>
-    <row r="10" spans="1:10" s="7" customFormat="1" ht="12" customHeight="1">
+    <row r="10" spans="1:10" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="193"/>
       <c r="B10" s="171"/>
       <c r="C10" s="99" t="s">
@@ -6493,7 +6498,7 @@
       </c>
       <c r="I10" s="190"/>
     </row>
-    <row r="11" spans="1:10" s="3" customFormat="1" ht="6" customHeight="1">
+    <row r="11" spans="1:10" s="3" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="94"/>
       <c r="B11" s="64"/>
       <c r="C11" s="65"/>
@@ -6503,7 +6508,7 @@
       <c r="G11" s="66"/>
       <c r="H11" s="66"/>
     </row>
-    <row r="12" spans="1:10" s="24" customFormat="1" ht="12" customHeight="1">
+    <row r="12" spans="1:10" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="90" t="s">
         <v>5</v>
       </c>
@@ -6528,7 +6533,7 @@
       </c>
       <c r="I12" s="127"/>
     </row>
-    <row r="13" spans="1:10" s="24" customFormat="1" ht="12" customHeight="1">
+    <row r="13" spans="1:10" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="100"/>
       <c r="B13" s="81"/>
       <c r="C13" s="81"/>
@@ -6539,9 +6544,9 @@
       <c r="H13" s="86"/>
       <c r="I13" s="128"/>
     </row>
-    <row r="14" spans="1:10" ht="12" customHeight="1">
+    <row r="14" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="107" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B14" s="84"/>
       <c r="C14" s="84"/>
@@ -6552,9 +6557,9 @@
       <c r="H14" s="86"/>
       <c r="I14" s="128"/>
     </row>
-    <row r="15" spans="1:10" ht="12" customHeight="1">
+    <row r="15" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B15" s="80">
         <v>83.4</v>
@@ -6578,9 +6583,9 @@
       <c r="I15" s="128"/>
       <c r="J15" s="33"/>
     </row>
-    <row r="16" spans="1:10" ht="12" customHeight="1">
+    <row r="16" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B16" s="80">
         <v>10.3</v>
@@ -6604,9 +6609,9 @@
       <c r="I16" s="128"/>
       <c r="J16" s="33"/>
     </row>
-    <row r="17" spans="1:10" ht="12" customHeight="1">
+    <row r="17" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B17" s="80">
         <v>6.3</v>
@@ -6630,7 +6635,7 @@
       <c r="I17" s="128"/>
       <c r="J17" s="33"/>
     </row>
-    <row r="18" spans="1:10" ht="12" customHeight="1">
+    <row r="18" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="94"/>
       <c r="B18" s="84"/>
       <c r="C18" s="84"/>
@@ -6642,9 +6647,9 @@
       <c r="I18" s="128"/>
       <c r="J18" s="33"/>
     </row>
-    <row r="19" spans="1:10" ht="12" customHeight="1">
+    <row r="19" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="90" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B19" s="84"/>
       <c r="C19" s="84"/>
@@ -6656,9 +6661,9 @@
       <c r="I19" s="128"/>
       <c r="J19" s="33"/>
     </row>
-    <row r="20" spans="1:10" ht="12" customHeight="1">
+    <row r="20" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B20" s="80">
         <v>33.5</v>
@@ -6682,9 +6687,9 @@
       <c r="I20" s="128"/>
       <c r="J20" s="33"/>
     </row>
-    <row r="21" spans="1:10" ht="12" customHeight="1">
+    <row r="21" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B21" s="80">
         <v>11.7</v>
@@ -6708,9 +6713,9 @@
       <c r="I21" s="128"/>
       <c r="J21" s="33"/>
     </row>
-    <row r="22" spans="1:10" ht="12" customHeight="1">
+    <row r="22" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B22" s="80">
         <v>54.8</v>
@@ -6734,7 +6739,7 @@
       <c r="I22" s="128"/>
       <c r="J22" s="33"/>
     </row>
-    <row r="23" spans="1:10" ht="12" customHeight="1">
+    <row r="23" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="94"/>
       <c r="B23" s="84"/>
       <c r="C23" s="84"/>
@@ -6746,9 +6751,9 @@
       <c r="I23" s="128"/>
       <c r="J23" s="33"/>
     </row>
-    <row r="24" spans="1:10" ht="12" customHeight="1">
+    <row r="24" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="107" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B24" s="84"/>
       <c r="C24" s="84"/>
@@ -6760,9 +6765,9 @@
       <c r="I24" s="128"/>
       <c r="J24" s="33"/>
     </row>
-    <row r="25" spans="1:10" ht="12" customHeight="1">
+    <row r="25" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B25" s="84"/>
       <c r="C25" s="84"/>
@@ -6774,9 +6779,9 @@
       <c r="I25" s="128"/>
       <c r="J25" s="33"/>
     </row>
-    <row r="26" spans="1:10" ht="12" customHeight="1">
+    <row r="26" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B26" s="80">
         <v>53.7</v>
@@ -6800,9 +6805,9 @@
       <c r="I26" s="128"/>
       <c r="J26" s="33"/>
     </row>
-    <row r="27" spans="1:10" ht="12" customHeight="1">
+    <row r="27" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B27" s="80">
         <v>22.6</v>
@@ -6826,9 +6831,9 @@
       <c r="I27" s="128"/>
       <c r="J27" s="33"/>
     </row>
-    <row r="28" spans="1:10" ht="12" customHeight="1">
+    <row r="28" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B28" s="80">
         <v>23.6</v>
@@ -6852,9 +6857,9 @@
       <c r="I28" s="128"/>
       <c r="J28" s="33"/>
     </row>
-    <row r="29" spans="1:10" ht="12" customHeight="1">
+    <row r="29" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B29" s="84"/>
       <c r="C29" s="84"/>
@@ -6866,9 +6871,9 @@
       <c r="I29" s="128"/>
       <c r="J29" s="33"/>
     </row>
-    <row r="30" spans="1:10" ht="12" customHeight="1">
+    <row r="30" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B30" s="80">
         <v>94.6</v>
@@ -6892,9 +6897,9 @@
       <c r="I30" s="128"/>
       <c r="J30" s="33"/>
     </row>
-    <row r="31" spans="1:10" ht="12" customHeight="1">
+    <row r="31" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="97" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B31" s="80">
         <v>41.3</v>
@@ -6918,9 +6923,9 @@
       <c r="I31" s="128"/>
       <c r="J31" s="33"/>
     </row>
-    <row r="32" spans="1:10" ht="12" customHeight="1">
+    <row r="32" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B32" s="80">
         <v>41.9</v>
@@ -6944,9 +6949,9 @@
       <c r="I32" s="128"/>
       <c r="J32" s="33"/>
     </row>
-    <row r="33" spans="1:10" ht="12" customHeight="1">
+    <row r="33" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B33" s="80">
         <v>12.4</v>
@@ -6970,7 +6975,7 @@
       <c r="I33" s="128"/>
       <c r="J33" s="33"/>
     </row>
-    <row r="34" spans="1:10" ht="12" customHeight="1">
+    <row r="34" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="12"/>
       <c r="B34" s="80"/>
       <c r="C34" s="80"/>
@@ -6982,9 +6987,9 @@
       <c r="I34" s="128"/>
       <c r="J34" s="33"/>
     </row>
-    <row r="35" spans="1:10" ht="12" customHeight="1">
+    <row r="35" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="90" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B35" s="84"/>
       <c r="C35" s="84"/>
@@ -6996,9 +7001,9 @@
       <c r="I35" s="128"/>
       <c r="J35" s="33"/>
     </row>
-    <row r="36" spans="1:10" ht="12" customHeight="1">
+    <row r="36" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B36" s="80">
         <v>84.4</v>
@@ -7022,9 +7027,9 @@
       <c r="I36" s="128"/>
       <c r="J36" s="33"/>
     </row>
-    <row r="37" spans="1:10" ht="12" customHeight="1">
+    <row r="37" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B37" s="80">
         <v>12.6</v>
@@ -7048,9 +7053,9 @@
       <c r="I37" s="128"/>
       <c r="J37" s="33"/>
     </row>
-    <row r="38" spans="1:10" ht="12" customHeight="1">
+    <row r="38" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B38" s="80">
         <v>3</v>
@@ -7072,11 +7077,11 @@
         <v>4.7</v>
       </c>
       <c r="I38" s="128" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J38" s="33"/>
     </row>
-    <row r="39" spans="1:10" ht="12" customHeight="1">
+    <row r="39" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="94"/>
       <c r="B39" s="84"/>
       <c r="C39" s="84"/>
@@ -7088,9 +7093,9 @@
       <c r="I39" s="128"/>
       <c r="J39" s="33"/>
     </row>
-    <row r="40" spans="1:10" ht="12" customHeight="1">
+    <row r="40" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="107" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B40" s="84"/>
       <c r="C40" s="84"/>
@@ -7102,9 +7107,9 @@
       <c r="I40" s="128"/>
       <c r="J40" s="33"/>
     </row>
-    <row r="41" spans="1:10" ht="12" customHeight="1">
+    <row r="41" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="108" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B41" s="80">
         <v>83.9</v>
@@ -7128,9 +7133,9 @@
       <c r="I41" s="128"/>
       <c r="J41" s="33"/>
     </row>
-    <row r="42" spans="1:10" ht="12" customHeight="1">
+    <row r="42" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="109" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B42" s="80">
         <v>66.2</v>
@@ -7154,9 +7159,9 @@
       <c r="I42" s="128"/>
       <c r="J42" s="33"/>
     </row>
-    <row r="43" spans="1:10" ht="12" customHeight="1">
+    <row r="43" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B43" s="80">
         <v>19.2</v>
@@ -7180,9 +7185,9 @@
       <c r="I43" s="128"/>
       <c r="J43" s="33"/>
     </row>
-    <row r="44" spans="1:10" ht="12" customHeight="1">
+    <row r="44" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B44" s="80">
         <v>14.6</v>
@@ -7206,7 +7211,7 @@
       <c r="I44" s="128"/>
       <c r="J44" s="33"/>
     </row>
-    <row r="45" spans="1:10" ht="12" customHeight="1">
+    <row r="45" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="13"/>
       <c r="B45" s="84"/>
       <c r="C45" s="84"/>
@@ -7218,9 +7223,9 @@
       <c r="I45" s="128"/>
       <c r="J45" s="33"/>
     </row>
-    <row r="46" spans="1:10" ht="12" customHeight="1">
+    <row r="46" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="108" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B46" s="80">
         <v>94.3</v>
@@ -7244,9 +7249,9 @@
       <c r="I46" s="128"/>
       <c r="J46" s="33"/>
     </row>
-    <row r="47" spans="1:10" ht="12" customHeight="1">
+    <row r="47" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="109" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B47" s="80">
         <v>76.5</v>
@@ -7270,9 +7275,9 @@
       <c r="I47" s="128"/>
       <c r="J47" s="33"/>
     </row>
-    <row r="48" spans="1:10" ht="12" customHeight="1">
+    <row r="48" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B48" s="80">
         <v>14.8</v>
@@ -7296,9 +7301,9 @@
       <c r="I48" s="128"/>
       <c r="J48" s="33"/>
     </row>
-    <row r="49" spans="1:10" ht="12" customHeight="1">
+    <row r="49" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B49" s="80">
         <v>8.6999999999999993</v>
@@ -7322,7 +7327,7 @@
       <c r="I49" s="128"/>
       <c r="J49" s="33"/>
     </row>
-    <row r="50" spans="1:10" ht="12" customHeight="1">
+    <row r="50" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="13"/>
       <c r="B50" s="80"/>
       <c r="C50" s="80"/>
@@ -7334,9 +7339,9 @@
       <c r="I50" s="128"/>
       <c r="J50" s="33"/>
     </row>
-    <row r="51" spans="1:10" ht="12" customHeight="1">
+    <row r="51" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="110" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B51" s="84"/>
       <c r="C51" s="84"/>
@@ -7348,9 +7353,9 @@
       <c r="I51" s="128"/>
       <c r="J51" s="33"/>
     </row>
-    <row r="52" spans="1:10" ht="12" customHeight="1">
+    <row r="52" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B52" s="80">
         <v>2.2999999999999998</v>
@@ -7372,13 +7377,13 @@
         <v>3.5</v>
       </c>
       <c r="I52" s="128" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J52" s="33"/>
     </row>
-    <row r="53" spans="1:10" ht="12" customHeight="1">
+    <row r="53" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B53" s="80">
         <v>63.2</v>
@@ -7402,9 +7407,9 @@
       <c r="I53" s="128"/>
       <c r="J53" s="33"/>
     </row>
-    <row r="54" spans="1:10" ht="12" customHeight="1">
+    <row r="54" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B54" s="80">
         <v>34.5</v>
@@ -7428,7 +7433,7 @@
       <c r="I54" s="128"/>
       <c r="J54" s="33"/>
     </row>
-    <row r="55" spans="1:10" ht="12" customHeight="1">
+    <row r="55" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="109"/>
       <c r="B55" s="84"/>
       <c r="C55" s="84"/>
@@ -7440,9 +7445,9 @@
       <c r="I55" s="128"/>
       <c r="J55" s="33"/>
     </row>
-    <row r="56" spans="1:10" ht="12" customHeight="1">
+    <row r="56" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="107" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B56" s="84"/>
       <c r="C56" s="84"/>
@@ -7454,9 +7459,9 @@
       <c r="I56" s="128"/>
       <c r="J56" s="33"/>
     </row>
-    <row r="57" spans="1:10" ht="12" customHeight="1">
+    <row r="57" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="92" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B57" s="84"/>
       <c r="C57" s="84"/>
@@ -7468,9 +7473,9 @@
       <c r="I57" s="128"/>
       <c r="J57" s="33"/>
     </row>
-    <row r="58" spans="1:10" ht="12" customHeight="1">
+    <row r="58" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B58" s="80">
         <v>79.099999999999994</v>
@@ -7494,9 +7499,9 @@
       <c r="I58" s="128"/>
       <c r="J58" s="33"/>
     </row>
-    <row r="59" spans="1:10" ht="12" customHeight="1">
+    <row r="59" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B59" s="80">
         <v>15.1</v>
@@ -7520,9 +7525,9 @@
       <c r="I59" s="128"/>
       <c r="J59" s="33"/>
     </row>
-    <row r="60" spans="1:10" ht="12" customHeight="1">
+    <row r="60" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B60" s="80">
         <v>5.9</v>
@@ -7544,13 +7549,13 @@
         <v>7.1</v>
       </c>
       <c r="I60" s="128" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J60" s="33"/>
     </row>
-    <row r="61" spans="1:10" ht="12" customHeight="1">
+    <row r="61" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="92" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B61" s="84"/>
       <c r="C61" s="84"/>
@@ -7562,9 +7567,9 @@
       <c r="I61" s="128"/>
       <c r="J61" s="33"/>
     </row>
-    <row r="62" spans="1:10" ht="12" customHeight="1">
+    <row r="62" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B62" s="80">
         <v>81.2</v>
@@ -7588,9 +7593,9 @@
       <c r="I62" s="128"/>
       <c r="J62" s="33"/>
     </row>
-    <row r="63" spans="1:10" ht="12" customHeight="1">
+    <row r="63" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B63" s="80">
         <v>12.7</v>
@@ -7614,9 +7619,9 @@
       <c r="I63" s="128"/>
       <c r="J63" s="33"/>
     </row>
-    <row r="64" spans="1:10" ht="12" customHeight="1">
+    <row r="64" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B64" s="80">
         <v>6.1</v>
@@ -7638,13 +7643,13 @@
         <v>7.3</v>
       </c>
       <c r="I64" s="128" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J64" s="33"/>
     </row>
-    <row r="65" spans="1:10" ht="12" customHeight="1">
+    <row r="65" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="92" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B65" s="84"/>
       <c r="C65" s="84"/>
@@ -7656,9 +7661,9 @@
       <c r="I65" s="128"/>
       <c r="J65" s="33"/>
     </row>
-    <row r="66" spans="1:10" ht="12" customHeight="1">
+    <row r="66" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B66" s="80">
         <v>64.099999999999994</v>
@@ -7682,9 +7687,9 @@
       <c r="I66" s="128"/>
       <c r="J66" s="33"/>
     </row>
-    <row r="67" spans="1:10" ht="12" customHeight="1">
+    <row r="67" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B67" s="80">
         <v>16.899999999999999</v>
@@ -7708,9 +7713,9 @@
       <c r="I67" s="128"/>
       <c r="J67" s="33"/>
     </row>
-    <row r="68" spans="1:10" ht="12" customHeight="1">
+    <row r="68" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B68" s="80">
         <v>14.7</v>
@@ -7734,9 +7739,9 @@
       <c r="I68" s="128"/>
       <c r="J68" s="33"/>
     </row>
-    <row r="69" spans="1:10" ht="12" customHeight="1">
+    <row r="69" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B69" s="80">
         <v>4.2</v>
@@ -7760,9 +7765,9 @@
       <c r="I69" s="128"/>
       <c r="J69" s="33"/>
     </row>
-    <row r="70" spans="1:10" ht="12" customHeight="1">
+    <row r="70" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="92" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B70" s="84"/>
       <c r="C70" s="84"/>
@@ -7774,9 +7779,9 @@
       <c r="I70" s="128"/>
       <c r="J70" s="33"/>
     </row>
-    <row r="71" spans="1:10" ht="12" customHeight="1">
+    <row r="71" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B71" s="80">
         <v>58.4</v>
@@ -7800,9 +7805,9 @@
       <c r="I71" s="128"/>
       <c r="J71" s="33"/>
     </row>
-    <row r="72" spans="1:10" s="30" customFormat="1" ht="12" customHeight="1">
+    <row r="72" spans="1:10" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B72" s="31">
         <v>25</v>
@@ -7826,9 +7831,9 @@
       <c r="I72" s="128"/>
       <c r="J72" s="34"/>
     </row>
-    <row r="73" spans="1:10" s="30" customFormat="1" ht="12" customHeight="1">
+    <row r="73" spans="1:10" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B73" s="32">
         <v>12.1</v>
@@ -7852,9 +7857,9 @@
       <c r="I73" s="128"/>
       <c r="J73" s="34"/>
     </row>
-    <row r="74" spans="1:10" ht="12" customHeight="1">
+    <row r="74" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B74" s="32">
         <v>4.5</v>
@@ -7877,7 +7882,7 @@
       </c>
       <c r="I74" s="128"/>
     </row>
-    <row r="75" spans="1:10" ht="12" customHeight="1">
+    <row r="75" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="115"/>
       <c r="B75" s="85"/>
       <c r="C75" s="85"/>
@@ -7888,51 +7893,51 @@
       <c r="H75" s="85"/>
       <c r="I75" s="89"/>
     </row>
-    <row r="76" spans="1:10" ht="12" customHeight="1">
+    <row r="76" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="13"/>
     </row>
-    <row r="77" spans="1:10" ht="12" customHeight="1">
+    <row r="77" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="16" t="s">
         <v>46</v>
       </c>
       <c r="G77" s="75"/>
       <c r="H77" s="75"/>
     </row>
-    <row r="78" spans="1:10" ht="12" customHeight="1">
+    <row r="78" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="16" t="s">
         <v>47</v>
       </c>
       <c r="G78" s="75"/>
       <c r="H78" s="75"/>
     </row>
-    <row r="79" spans="1:10" ht="12" customHeight="1">
+    <row r="79" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="28" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="12" customHeight="1">
-      <c r="A80" s="28" t="s">
+    <row r="81" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="28" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="81" spans="1:37" ht="12" customHeight="1">
-      <c r="A81" s="28" t="s">
+    <row r="82" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="28" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="1:37" ht="12" customHeight="1">
-      <c r="A82" s="28" t="s">
+    <row r="83" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="28" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="83" spans="1:37" ht="12" customHeight="1">
-      <c r="A83" s="28" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="84" spans="1:37" s="20" customFormat="1" ht="12" customHeight="1">
+    <row r="84" spans="1:37" s="20" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B84" s="60"/>
       <c r="C84" s="76"/>
@@ -7942,9 +7947,9 @@
       <c r="G84" s="55"/>
       <c r="H84" s="55"/>
     </row>
-    <row r="85" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
+    <row r="85" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B85" s="77"/>
       <c r="C85" s="77"/>
@@ -7954,12 +7959,12 @@
       <c r="G85" s="79"/>
       <c r="H85" s="79"/>
     </row>
-    <row r="86" spans="1:37" ht="12" customHeight="1">
+    <row r="86" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="29"/>
     </row>
-    <row r="87" spans="1:37" s="112" customFormat="1" ht="11.25">
+    <row r="87" spans="1:37" s="112" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A87" s="158" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B87" s="86"/>
       <c r="C87" s="86"/>
@@ -7998,9 +8003,9 @@
       <c r="AJ87" s="86"/>
       <c r="AK87" s="86"/>
     </row>
-    <row r="88" spans="1:37" s="112" customFormat="1" ht="11.25">
+    <row r="88" spans="1:37" s="112" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A88" s="113" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B88" s="86"/>
       <c r="C88" s="86"/>
@@ -8039,7 +8044,7 @@
       <c r="AJ88" s="86"/>
       <c r="AK88" s="86"/>
     </row>
-    <row r="89" spans="1:37" s="112" customFormat="1" ht="11.25">
+    <row r="89" spans="1:37" s="112" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A89" s="113"/>
       <c r="B89" s="86"/>
       <c r="C89" s="86"/>
@@ -8078,7 +8083,7 @@
       <c r="AJ89" s="86"/>
       <c r="AK89" s="86"/>
     </row>
-    <row r="90" spans="1:37" s="112" customFormat="1" ht="11.25">
+    <row r="90" spans="1:37" s="112" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A90" s="113" t="s">
         <v>48</v>
       </c>
